--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_05.08.24_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -503,13 +503,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19.845</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.03500000000000014</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>279.29</v>
+        <v>19.93</v>
       </c>
       <c r="H3" t="n">
-        <v>278</v>
+        <v>19.907</v>
       </c>
       <c r="I3" t="n">
-        <v>1.29000000000002</v>
+        <v>0.02299999999999969</v>
       </c>
       <c r="J3" t="n">
-        <v>0.46</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>277.58</v>
+        <v>19.798</v>
       </c>
       <c r="H4" t="n">
-        <v>277.99</v>
+        <v>19.898</v>
       </c>
       <c r="I4" t="n">
-        <v>0.410000000000025</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="J4" t="n">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -593,13 +601,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>long</t>
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>277.31</v>
+        <v>58.98</v>
       </c>
       <c r="H5" t="n">
-        <v>275.69</v>
+        <v>59.39</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.620000000000005</v>
+        <v>0.4100000000000037</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.58</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -640,7 +650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>127.36</v>
+        <v>59.55</v>
       </c>
       <c r="H6" t="n">
-        <v>127.98</v>
+        <v>59.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6200000000000045</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="J6" t="n">
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -667,13 +677,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>long</t>
@@ -685,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>127.58</v>
+        <v>1379.6</v>
       </c>
       <c r="H7" t="n">
-        <v>127.48</v>
+        <v>1377.4</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999432</v>
+        <v>-2.199999999999818</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.08</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -714,7 +726,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -723,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6389.5</v>
+        <v>0.09522</v>
       </c>
       <c r="H8" t="n">
-        <v>6426.5</v>
+        <v>0.09526</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>-3.999999999999837e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.58</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -752,7 +764,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -761,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6440</v>
+        <v>127.36</v>
       </c>
       <c r="H9" t="n">
-        <v>6436</v>
+        <v>127.98</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0.6200000000000045</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="10">
@@ -779,13 +791,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>long</t>
@@ -797,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6425.5</v>
+        <v>123.92</v>
       </c>
       <c r="H10" t="n">
-        <v>6394.5</v>
+        <v>124.34</v>
       </c>
       <c r="I10" t="n">
-        <v>-31</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.48</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">
@@ -815,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -826,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -835,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>496.25</v>
+        <v>124.34</v>
       </c>
       <c r="H11" t="n">
-        <v>496.2</v>
+        <v>124.3</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.05000000000001137</v>
+        <v>0.04000000000000625</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
@@ -853,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -873,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>497.55</v>
+        <v>95.94</v>
       </c>
       <c r="H12" t="n">
-        <v>497.3</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.25</v>
+        <v>0.480000000000004</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -891,13 +905,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>long</t>
@@ -909,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>496.6</v>
+        <v>6389.5</v>
       </c>
       <c r="H13" t="n">
-        <v>492.9</v>
+        <v>6426.5</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.700000000000045</v>
+        <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.75</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="14">
@@ -927,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -938,7 +954,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -947,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>223.37</v>
+        <v>6440</v>
       </c>
       <c r="H14" t="n">
-        <v>224.2</v>
+        <v>6436</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8299999999999841</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="15">
@@ -965,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -976,7 +992,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -985,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>224.78</v>
+        <v>48.93</v>
       </c>
       <c r="H15" t="n">
-        <v>224.59</v>
+        <v>49.06</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1899999999999977</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16">
@@ -1009,7 +1025,9 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>long</t>
@@ -1021,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>223.37</v>
+      </c>
+      <c r="H16" t="n">
         <v>224.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>223.39</v>
-      </c>
       <c r="I16" t="n">
-        <v>-0.8100000000000023</v>
+        <v>0.8299999999999841</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="17">
@@ -1039,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1059,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1009.2</v>
+        <v>224.78</v>
       </c>
       <c r="H17" t="n">
-        <v>1005.2</v>
+        <v>224.59</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
@@ -1077,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1097,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>2887.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1004.4</v>
+        <v>2897.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.399999999999977</v>
+        <v>9.700000000000273</v>
       </c>
       <c r="J18" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19">
@@ -1115,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1135,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1008</v>
+        <v>2907.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1007.6</v>
+        <v>2898.6</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3999999999999773</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="20">
@@ -1153,13 +1171,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>long</t>
@@ -1171,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1004.2</v>
+        <v>160.28</v>
       </c>
       <c r="H20" t="n">
-        <v>1004.8</v>
+        <v>160.6</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
@@ -1189,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1200,7 +1220,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1209,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>123.92</v>
+        <v>160.94</v>
       </c>
       <c r="H21" t="n">
-        <v>124.34</v>
+        <v>160.66</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4200000000000017</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="J21" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="22">
@@ -1227,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1247,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>124.34</v>
+        <v>1009.2</v>
       </c>
       <c r="H22" t="n">
-        <v>124.3</v>
+        <v>1005.2</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04000000000000625</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
@@ -1265,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1285,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>160.28</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>160.6</v>
+        <v>1004.4</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3199999999999932</v>
+        <v>4.399999999999977</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="24">
@@ -1303,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1323,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>160.94</v>
+        <v>1008</v>
       </c>
       <c r="H24" t="n">
-        <v>160.66</v>
+        <v>1007.6</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="J24" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1361,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>48.93</v>
+        <v>496.25</v>
       </c>
       <c r="H25" t="n">
-        <v>49.06</v>
+        <v>496.2</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1300000000000026</v>
+        <v>-0.05000000000001137</v>
       </c>
       <c r="J25" t="n">
-        <v>0.27</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="26">
@@ -1379,16 +1399,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1397,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>48.97</v>
+        <v>497.55</v>
       </c>
       <c r="H26" t="n">
-        <v>48.845</v>
+        <v>497.3</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.125</v>
+        <v>0.25</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.26</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
@@ -1415,7 +1437,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1435,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1379.6</v>
+        <v>11.884</v>
       </c>
       <c r="H27" t="n">
-        <v>1377.4</v>
+        <v>11.9</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.199999999999818</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="28">
@@ -1453,16 +1475,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1471,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1376.4</v>
+        <v>279.29</v>
       </c>
       <c r="H28" t="n">
-        <v>1375.4</v>
+        <v>278</v>
       </c>
       <c r="I28" t="n">
-        <v>-1</v>
+        <v>1.29000000000002</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.06999999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29">
@@ -1489,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1509,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>58.98</v>
+        <v>277.58</v>
       </c>
       <c r="H29" t="n">
-        <v>59.39</v>
+        <v>277.99</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4100000000000037</v>
+        <v>0.410000000000025</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30">
@@ -1527,7 +1551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1538,7 +1562,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1547,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>59.55</v>
+        <v>55.59</v>
       </c>
       <c r="H30" t="n">
-        <v>59.5</v>
+        <v>56.12</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04999999999999716</v>
+        <v>0.529999999999994</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31">
@@ -1565,16 +1589,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1583,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>59.47</v>
+        <v>659.25</v>
       </c>
       <c r="H31" t="n">
-        <v>59.38</v>
+        <v>659.4</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.08999999999999631</v>
+        <v>-0.1499999999999773</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.15</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32">
@@ -1601,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1612,7 +1638,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1621,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>95.98999999999999</v>
+        <v>139.42</v>
       </c>
       <c r="H32" t="n">
-        <v>95.98</v>
+        <v>141.52</v>
       </c>
       <c r="I32" t="n">
-        <v>0.009999999999990905</v>
+        <v>2.100000000000023</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="33">
@@ -1639,16 +1665,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1657,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>95.76000000000001</v>
+        <v>142.8</v>
       </c>
       <c r="H33" t="n">
-        <v>95.63</v>
+        <v>142.04</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1300000000000097</v>
+        <v>0.7600000000000193</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.14</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="34">
@@ -1675,7 +1703,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1686,7 +1714,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1695,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>55.59</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>56.12</v>
+        <v>95.98</v>
       </c>
       <c r="I34" t="n">
-        <v>0.529999999999994</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="J34" t="n">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
@@ -1713,15 +1741,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>long</t>
@@ -1733,16 +1759,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>139.42</v>
+        <v>19.791</v>
       </c>
       <c r="H35" t="n">
-        <v>141.52</v>
+        <v>19.761</v>
       </c>
       <c r="I35" t="n">
-        <v>2.100000000000023</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="J35" t="n">
-        <v>1.51</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="36">
@@ -1751,18 +1777,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1771,16 +1795,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>142.8</v>
+        <v>59.47</v>
       </c>
       <c r="H36" t="n">
-        <v>142.04</v>
+        <v>59.38</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7600000000000193</v>
+        <v>-0.08999999999999631</v>
       </c>
       <c r="J36" t="n">
-        <v>0.53</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="37">
@@ -1789,15 +1813,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>long</t>
@@ -1809,16 +1831,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>19.88</v>
+        <v>1376.4</v>
       </c>
       <c r="H37" t="n">
-        <v>19.845</v>
+        <v>1375.4</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.03500000000000014</v>
+        <v>-1</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.18</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1827,18 +1849,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1847,16 +1867,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>19.93</v>
+        <v>127.58</v>
       </c>
       <c r="H38" t="n">
-        <v>19.907</v>
+        <v>127.48</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02299999999999969</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="J38" t="n">
-        <v>0.12</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="39">
@@ -1865,15 +1885,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>long</t>
@@ -1885,16 +1903,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>19.798</v>
+        <v>94.95</v>
       </c>
       <c r="H39" t="n">
-        <v>19.898</v>
+        <v>94.73</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09999999999999787</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="J39" t="n">
-        <v>0.51</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="40">
@@ -1903,7 +1921,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1921,16 +1939,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>19.791</v>
+        <v>6425.5</v>
       </c>
       <c r="H40" t="n">
-        <v>19.761</v>
+        <v>6394.5</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.03000000000000114</v>
+        <v>-31</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.15</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="41">
@@ -1939,18 +1957,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1959,16 +1975,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>659.25</v>
+        <v>48.97</v>
       </c>
       <c r="H41" t="n">
-        <v>659.4</v>
+        <v>48.845</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1499999999999773</v>
+        <v>-0.125</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.02</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="42">
@@ -1977,7 +1993,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -1995,16 +2011,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>657.9</v>
+        <v>224.2</v>
       </c>
       <c r="H42" t="n">
-        <v>657</v>
+        <v>223.39</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.8999999999999773</v>
+        <v>-0.8100000000000023</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.14</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="43">
@@ -2049,18 +2065,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2069,16 +2083,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.09522000000000001</v>
+        <v>2891</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09526000000000001</v>
+        <v>2888</v>
       </c>
       <c r="I44" t="n">
-        <v>-3.999999999999837e-05</v>
+        <v>-3</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="45">
@@ -2087,18 +2101,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2107,16 +2119,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>95.94</v>
+        <v>1004.2</v>
       </c>
       <c r="H45" t="n">
-        <v>95.45999999999999</v>
+        <v>1004.8</v>
       </c>
       <c r="I45" t="n">
-        <v>0.480000000000004</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
@@ -2125,7 +2137,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -2143,16 +2155,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>94.95</v>
+        <v>496.6</v>
       </c>
       <c r="H46" t="n">
-        <v>94.73</v>
+        <v>492.9</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.2199999999999989</v>
+        <v>-3.700000000000045</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.23</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="47">
@@ -2161,18 +2173,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2181,16 +2191,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2887.6</v>
+        <v>11.914</v>
       </c>
       <c r="H47" t="n">
-        <v>2897.3</v>
+        <v>11.96</v>
       </c>
       <c r="I47" t="n">
-        <v>9.700000000000273</v>
+        <v>-0.04600000000000115</v>
       </c>
       <c r="J47" t="n">
-        <v>0.34</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="48">
@@ -2199,18 +2209,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2219,16 +2227,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2907.6</v>
+        <v>277.31</v>
       </c>
       <c r="H48" t="n">
-        <v>2898.6</v>
+        <v>275.69</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>-1.620000000000005</v>
       </c>
       <c r="J48" t="n">
-        <v>0.31</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="49">
@@ -2237,7 +2245,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -2255,16 +2263,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2891</v>
+        <v>657.9</v>
       </c>
       <c r="H49" t="n">
-        <v>2888</v>
+        <v>657</v>
       </c>
       <c r="I49" t="n">
-        <v>-3</v>
+        <v>-0.8999999999999773</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="50">
@@ -2273,15 +2281,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>long</t>
@@ -2293,52 +2299,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11.884</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>11.9</v>
+        <v>95.63</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01600000000000001</v>
+        <v>-0.1300000000000097</v>
       </c>
       <c r="J50" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>RUAL</t>
-        </is>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>11.914</v>
-      </c>
-      <c r="H51" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="I51" t="n">
-        <v>-0.04600000000000115</v>
-      </c>
-      <c r="J51" t="n">
-        <v>-0.39</v>
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,13 +2369,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05799999999999628</v>
+        <v>0.05799999999999983</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01449999999999907</v>
+        <v>0.01449999999999996</v>
       </c>
       <c r="E2" t="n">
         <v>0.3</v>
@@ -2439,111 +2409,111 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>0.08000000000004093</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.333333333333333</v>
+        <v>0.02666666666668031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.16</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08000000000004093</v>
+        <v>-3.500000000000057</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02666666666668031</v>
+        <v>-1.166666666666686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03000000000000003</v>
+        <v>-0.71</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.500000000000057</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.166666666666686</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.71</v>
+        <v>0.16</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.24</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3700000000000045</v>
+        <v>0.2099999999999795</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1233333333333348</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6300000000000001</v>
+        <v>0.09000000000000002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2099999999999795</v>
+        <v>0.3700000000000045</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.1233333333333348</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09000000000000002</v>
+        <v>0.6300000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
@@ -2571,243 +2541,243 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005000000000002558</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002500000000001279</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2600000000000051</v>
+        <v>2.860000000000042</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1300000000000026</v>
+        <v>1.430000000000021</v>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>2.04</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.460000000000008</v>
+        <v>-1.049999999999955</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.230000000000004</v>
+        <v>-0.5249999999999773</v>
       </c>
       <c r="E12" t="n">
-        <v>0.37</v>
+        <v>-0.16</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5999999999999943</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2999999999999972</v>
+        <v>-0.01500000000000057</v>
       </c>
       <c r="E13" t="n">
-        <v>0.37</v>
+        <v>-0.26</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5200000000000102</v>
+        <v>-0.1200000000000188</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2600000000000051</v>
+        <v>-0.06000000000000938</v>
       </c>
       <c r="E14" t="n">
-        <v>0.41</v>
+        <v>-0.13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03000000000000114</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01500000000000057</v>
+        <v>0.002500000000001279</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.26</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.199999999999818</v>
+        <v>0.2600000000000051</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.599999999999909</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.23</v>
+        <v>0.27</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.049999999999955</v>
+        <v>0.460000000000008</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5249999999999773</v>
+        <v>0.230000000000004</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.16</v>
+        <v>0.37</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.860000000000042</v>
+        <v>0.5200000000000102</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.430000000000021</v>
+        <v>0.2600000000000051</v>
       </c>
       <c r="E18" t="n">
-        <v>2.04</v>
+        <v>0.41</v>
       </c>
       <c r="F18" t="n">
-        <v>1.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1200000000000188</v>
+        <v>-3.199999999999818</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.06000000000000938</v>
+        <v>-1.599999999999909</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.13</v>
+        <v>-0.23</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.06</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.6800000000000068</v>
+        <v>0.529999999999994</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6800000000000068</v>
+        <v>0.529999999999994</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.44</v>
+        <v>0.95</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.44</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21">
@@ -2835,42 +2805,24 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.529999999999994</v>
+        <v>-0.6800000000000068</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.529999999999994</v>
+        <v>-0.6800000000000068</v>
       </c>
       <c r="E22" t="n">
-        <v>0.95</v>
+        <v>-0.44</v>
       </c>
       <c r="F22" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>-0.44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
